--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/ILLINOIS_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/ILLINOIS_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1742"/>
+  <dimension ref="A1:D1736"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C32">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C36">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C41">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C45">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C62">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C67">
@@ -1343,7 +1343,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C74">
@@ -1356,7 +1356,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C75">
@@ -1816,7 +1816,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C110">
@@ -1842,7 +1842,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C112">
@@ -2050,7 +2050,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C128">
@@ -2063,7 +2063,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C129">
@@ -2419,7 +2419,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C156">
@@ -2645,7 +2645,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C173">
@@ -2671,7 +2671,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C179">
@@ -2813,7 +2813,7 @@
         <v>596</v>
       </c>
       <c r="D185">
-        <v>0.009401224051990661</v>
+        <v>0.00940122405199066</v>
       </c>
     </row>
     <row r="186">
@@ -2928,7 +2928,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C194">
@@ -3110,7 +3110,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C208">
@@ -3162,7 +3162,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C212">
@@ -3253,7 +3253,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C219">
@@ -3266,7 +3266,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C220">
@@ -3279,7 +3279,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C221">
@@ -3409,12 +3409,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C231">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C234">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C235">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C241">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C248">
@@ -3713,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C254">
@@ -3804,7 +3804,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C261">
@@ -3895,7 +3895,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C268">
@@ -4077,7 +4077,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C282">
@@ -4220,7 +4220,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C293">
@@ -4233,7 +4233,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C294">
@@ -4246,7 +4246,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C295">
@@ -4272,7 +4272,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C297">
@@ -4298,7 +4298,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C299">
@@ -4428,7 +4428,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C309">
@@ -4441,7 +4441,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C310">
@@ -4623,7 +4623,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C324">
@@ -4701,7 +4701,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C330">
@@ -4714,7 +4714,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C331">
@@ -4727,7 +4727,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C332">
@@ -4740,7 +4740,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C333">
@@ -4914,7 +4914,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C346">
@@ -4927,7 +4927,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C347">
@@ -4940,7 +4940,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C348">
@@ -5044,7 +5044,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C356">
@@ -5096,7 +5096,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C360">
@@ -5200,7 +5200,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C368">
@@ -5252,7 +5252,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C372">
@@ -5272,13 +5272,13 @@
         <v>60</v>
       </c>
       <c r="D373">
-        <v>0.0009464319515426841</v>
+        <v>0.000946431951542684</v>
       </c>
     </row>
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C374">
@@ -5304,7 +5304,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C376">
@@ -5317,7 +5317,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C377">
@@ -5343,7 +5343,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C379">
@@ -5408,7 +5408,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C384">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C390">
@@ -5530,7 +5530,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C393">
@@ -5543,7 +5543,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C394">
@@ -5595,7 +5595,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C398">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C399">
@@ -5634,7 +5634,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C401">
@@ -5647,7 +5647,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C402">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C405">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C406">
@@ -5712,7 +5712,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C407">
@@ -5725,7 +5725,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C408">
@@ -5790,7 +5790,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C413">
@@ -5803,7 +5803,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C414">
@@ -5855,7 +5855,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C418">
@@ -5868,7 +5868,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C419">
@@ -5946,7 +5946,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C425">
@@ -5959,7 +5959,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C426">
@@ -5985,7 +5985,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C428">
@@ -5998,7 +5998,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C429">
@@ -6024,7 +6024,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C431">
@@ -6063,7 +6063,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C434">
@@ -6232,7 +6232,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C447">
@@ -6258,7 +6258,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C449">
@@ -6284,7 +6284,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C451">
@@ -6310,7 +6310,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C453">
@@ -6362,7 +6362,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C457">
@@ -6375,7 +6375,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C458">
@@ -6536,7 +6536,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C470">
@@ -6627,7 +6627,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C477">
@@ -6640,7 +6640,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C478">
@@ -6718,7 +6718,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C484">
@@ -6796,7 +6796,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C490">
@@ -6848,7 +6848,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C494">
@@ -6887,7 +6887,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C497">
@@ -6952,7 +6952,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C502">
@@ -6965,7 +6965,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C503">
@@ -6978,7 +6978,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C504">
@@ -6991,7 +6991,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C505">
@@ -7017,7 +7017,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C507">
@@ -7030,7 +7030,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C508">
@@ -7069,7 +7069,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C511">
@@ -7134,7 +7134,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C516">
@@ -7147,7 +7147,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C517">
@@ -7199,7 +7199,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C521">
@@ -7225,7 +7225,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C523">
@@ -7238,7 +7238,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C524">
@@ -7264,7 +7264,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C526">
@@ -7381,7 +7381,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C535">
@@ -7394,7 +7394,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C536">
@@ -7407,7 +7407,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C537">
@@ -7446,7 +7446,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C540">
@@ -7459,7 +7459,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C541">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C546">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C547">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C551">
@@ -7633,7 +7633,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C554">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C556">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C562">
@@ -7815,7 +7815,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C568">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C569">
@@ -7919,14 +7919,14 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C576">
         <v>59</v>
       </c>
       <c r="D576">
-        <v>0.0009306580856836393</v>
+        <v>0.0009306580856836392</v>
       </c>
     </row>
     <row r="577">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C583">
@@ -8023,7 +8023,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C584">
@@ -8036,7 +8036,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C585">
@@ -8088,7 +8088,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C589">
@@ -8153,7 +8153,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C594">
@@ -8166,7 +8166,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C595">
@@ -8257,7 +8257,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C602">
@@ -8322,7 +8322,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C607">
@@ -8335,7 +8335,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C608">
@@ -8361,7 +8361,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C610">
@@ -8374,7 +8374,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C611">
@@ -8400,7 +8400,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C613">
@@ -8426,7 +8426,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C615">
@@ -8439,7 +8439,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C616">
@@ -8452,7 +8452,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C617">
@@ -8465,7 +8465,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C618">
@@ -8504,7 +8504,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C621">
@@ -8517,7 +8517,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C622">
@@ -8543,7 +8543,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C624">
@@ -8595,7 +8595,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C628">
@@ -8608,7 +8608,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C629">
@@ -8647,7 +8647,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C632">
@@ -8660,7 +8660,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C633">
@@ -8803,7 +8803,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C644">
@@ -8816,7 +8816,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C645">
@@ -8829,7 +8829,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C646">
@@ -8842,7 +8842,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C647">
@@ -8907,7 +8907,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C652">
@@ -8920,7 +8920,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C653">
@@ -8959,7 +8959,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C656">
@@ -8972,7 +8972,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C657">
@@ -8985,7 +8985,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C658">
@@ -9328,7 +9328,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C684">
@@ -9354,7 +9354,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C686">
@@ -10225,7 +10225,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C753">
@@ -10297,7 +10297,7 @@
         <v>59</v>
       </c>
       <c r="D758">
-        <v>0.0009306580856836393</v>
+        <v>0.0009306580856836392</v>
       </c>
     </row>
     <row r="759">
@@ -10568,7 +10568,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C779">
@@ -10659,7 +10659,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C786">
@@ -10711,7 +10711,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C790">
@@ -10789,7 +10789,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C796">
@@ -10802,7 +10802,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C797">
@@ -10906,7 +10906,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C805">
@@ -10963,7 +10963,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C809">
@@ -10976,7 +10976,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C810">
@@ -11015,7 +11015,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C813">
@@ -11106,7 +11106,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C820">
@@ -11332,7 +11332,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C837">
@@ -11501,7 +11501,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C850">
@@ -11553,7 +11553,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C854">
@@ -11631,7 +11631,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C860">
@@ -11727,7 +11727,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C867">
@@ -11831,7 +11831,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C875">
@@ -11844,7 +11844,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C876">
@@ -11870,7 +11870,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C878">
@@ -11909,7 +11909,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C881">
@@ -11948,7 +11948,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C884">
@@ -11961,7 +11961,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C885">
@@ -11987,7 +11987,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C887">
@@ -12000,7 +12000,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C888">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C889">
@@ -12026,7 +12026,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C890">
@@ -12039,7 +12039,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C891">
@@ -12052,7 +12052,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C892">
@@ -12065,7 +12065,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C893">
@@ -12169,7 +12169,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C901">
@@ -12195,7 +12195,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C903">
@@ -12221,7 +12221,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C905">
@@ -12234,7 +12234,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C906">
@@ -12247,7 +12247,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C907">
@@ -12260,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C908">
@@ -12273,7 +12273,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C909">
@@ -12286,7 +12286,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C910">
@@ -12299,7 +12299,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C911">
@@ -12520,7 +12520,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C928">
@@ -12559,7 +12559,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C931">
@@ -13105,7 +13105,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C973">
@@ -13196,7 +13196,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C980">
@@ -13365,7 +13365,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C993">
@@ -13521,7 +13521,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1005">
@@ -13534,7 +13534,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1006">
@@ -13547,7 +13547,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1007">
@@ -13625,7 +13625,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1013">
@@ -13742,7 +13742,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1022">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1027">
@@ -13820,7 +13820,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1028">
@@ -13911,7 +13911,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C1035">
@@ -13989,7 +13989,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1041">
@@ -14483,7 +14483,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1079">
@@ -14639,7 +14639,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1091">
@@ -14652,7 +14652,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1092">
@@ -14665,7 +14665,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1093">
@@ -14678,7 +14678,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1094">
@@ -14704,7 +14704,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1096">
@@ -14717,7 +14717,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1097">
@@ -14730,7 +14730,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1098">
@@ -14743,7 +14743,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1099">
@@ -14769,7 +14769,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1101">
@@ -14782,7 +14782,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1102">
@@ -14795,7 +14795,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1103">
@@ -14834,7 +14834,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1106">
@@ -14847,7 +14847,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1107">
@@ -14873,7 +14873,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1109">
@@ -14912,7 +14912,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1112">
@@ -15203,7 +15203,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1134">
@@ -15255,7 +15255,7 @@
     <row r="1138">
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1138">
@@ -15372,7 +15372,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1147">
@@ -15528,7 +15528,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1159">
@@ -15541,7 +15541,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1160">
@@ -15723,7 +15723,7 @@
     <row r="1174">
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1174">
@@ -15736,7 +15736,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1175">
@@ -15775,7 +15775,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1178">
@@ -15827,7 +15827,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1182">
@@ -15944,7 +15944,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1191">
@@ -16074,7 +16074,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1201">
@@ -16360,7 +16360,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1223">
@@ -16412,7 +16412,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1227">
@@ -16425,7 +16425,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1228">
@@ -16516,7 +16516,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1235">
@@ -16607,7 +16607,7 @@
     <row r="1242">
       <c r="B1242" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1242">
@@ -16620,7 +16620,7 @@
     <row r="1243">
       <c r="B1243" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1243">
@@ -16633,7 +16633,7 @@
     <row r="1244">
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1244">
@@ -16685,7 +16685,7 @@
     <row r="1248">
       <c r="B1248" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1248">
@@ -16711,7 +16711,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1250">
@@ -16776,7 +16776,7 @@
     <row r="1255">
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1255">
@@ -16971,7 +16971,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1270">
@@ -17036,7 +17036,7 @@
     <row r="1275">
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1275">
@@ -17210,7 +17210,7 @@
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1288">
@@ -17236,7 +17236,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1290">
@@ -17314,7 +17314,7 @@
     <row r="1296">
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1296">
@@ -17327,7 +17327,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1297">
@@ -17366,7 +17366,7 @@
     <row r="1300">
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1300">
@@ -17392,7 +17392,7 @@
     <row r="1302">
       <c r="B1302" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1302">
@@ -17571,7 +17571,7 @@
     <row r="1315">
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1315">
@@ -17649,7 +17649,7 @@
     <row r="1321">
       <c r="B1321" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1321">
@@ -17779,7 +17779,7 @@
     <row r="1331">
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1331">
@@ -17857,7 +17857,7 @@
     <row r="1337">
       <c r="B1337" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1337">
@@ -17922,7 +17922,7 @@
     <row r="1342">
       <c r="B1342" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1342">
@@ -17948,7 +17948,7 @@
     <row r="1344">
       <c r="B1344" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1344">
@@ -18065,7 +18065,7 @@
     <row r="1353">
       <c r="B1353" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1353">
@@ -18078,7 +18078,7 @@
     <row r="1354">
       <c r="B1354" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1354">
@@ -18091,7 +18091,7 @@
     <row r="1355">
       <c r="B1355" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1355">
@@ -18104,7 +18104,7 @@
     <row r="1356">
       <c r="B1356" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1356">
@@ -18117,7 +18117,7 @@
     <row r="1357">
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1357">
@@ -18647,7 +18647,7 @@
     <row r="1397">
       <c r="B1397" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1397">
@@ -18699,7 +18699,7 @@
     <row r="1401">
       <c r="B1401" t="inlineStr">
         <is>
-          <t>San Felipe de Jesús</t>
+          <t>San Felipe De Jesús</t>
         </is>
       </c>
       <c r="C1401">
@@ -18834,7 +18834,7 @@
     <row r="1411">
       <c r="B1411" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1411">
@@ -19294,7 +19294,7 @@
     <row r="1446">
       <c r="B1446" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1446">
@@ -19390,7 +19390,7 @@
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1453">
@@ -19416,7 +19416,7 @@
     <row r="1455">
       <c r="B1455" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1455">
@@ -19429,7 +19429,7 @@
     <row r="1456">
       <c r="B1456" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1456">
@@ -19494,7 +19494,7 @@
     <row r="1461">
       <c r="B1461" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1461">
@@ -19585,7 +19585,7 @@
     <row r="1468">
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1468">
@@ -19624,7 +19624,7 @@
     <row r="1471">
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1471">
@@ -19663,7 +19663,7 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1474">
@@ -19715,7 +19715,7 @@
     <row r="1478">
       <c r="B1478" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1478">
@@ -19793,7 +19793,7 @@
     <row r="1484">
       <c r="B1484" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1484">
@@ -19832,7 +19832,7 @@
     <row r="1487">
       <c r="B1487" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1487">
@@ -19988,7 +19988,7 @@
     <row r="1499">
       <c r="B1499" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1499">
@@ -20097,7 +20097,7 @@
     <row r="1507">
       <c r="B1507" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1507">
@@ -20149,7 +20149,7 @@
     <row r="1511">
       <c r="B1511" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1511">
@@ -20279,7 +20279,7 @@
     <row r="1521">
       <c r="B1521" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1521">
@@ -20292,7 +20292,7 @@
     <row r="1522">
       <c r="B1522" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1522">
@@ -20344,7 +20344,7 @@
     <row r="1526">
       <c r="B1526" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1526">
@@ -20370,7 +20370,7 @@
     <row r="1528">
       <c r="B1528" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1528">
@@ -20565,7 +20565,7 @@
     <row r="1543">
       <c r="B1543" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1543">
@@ -20578,7 +20578,7 @@
     <row r="1544">
       <c r="B1544" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1544">
@@ -20773,7 +20773,7 @@
     <row r="1559">
       <c r="B1559" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1559">
@@ -20786,7 +20786,7 @@
     <row r="1560">
       <c r="B1560" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1560">
@@ -20799,7 +20799,7 @@
     <row r="1561">
       <c r="B1561" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1561">
@@ -20838,7 +20838,7 @@
     <row r="1564">
       <c r="B1564" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1564">
@@ -20851,7 +20851,7 @@
     <row r="1565">
       <c r="B1565" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1565">
@@ -20864,7 +20864,7 @@
     <row r="1566">
       <c r="B1566" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1566">
@@ -20877,7 +20877,7 @@
     <row r="1567">
       <c r="B1567" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1567">
@@ -21020,7 +21020,7 @@
     <row r="1578">
       <c r="B1578" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1578">
@@ -21059,14 +21059,14 @@
     <row r="1581">
       <c r="B1581" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1581">
         <v>60</v>
       </c>
       <c r="D1581">
-        <v>0.0009464319515426841</v>
+        <v>0.000946431951542684</v>
       </c>
     </row>
     <row r="1582">
@@ -21098,7 +21098,7 @@
     <row r="1584">
       <c r="B1584" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1584">
@@ -21111,7 +21111,7 @@
     <row r="1585">
       <c r="B1585" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1585">
@@ -21150,7 +21150,7 @@
     <row r="1588">
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1588">
@@ -21332,7 +21332,7 @@
     <row r="1602">
       <c r="B1602" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1602">
@@ -21384,7 +21384,7 @@
     <row r="1606">
       <c r="B1606" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1606">
@@ -21397,7 +21397,7 @@
     <row r="1607">
       <c r="B1607" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1607">
@@ -21449,7 +21449,7 @@
     <row r="1611">
       <c r="B1611" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1611">
@@ -21566,7 +21566,7 @@
     <row r="1620">
       <c r="B1620" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1620">
@@ -21592,7 +21592,7 @@
     <row r="1622">
       <c r="B1622" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1622">
@@ -21644,7 +21644,7 @@
     <row r="1626">
       <c r="B1626" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1626">
@@ -22073,7 +22073,7 @@
     <row r="1659">
       <c r="B1659" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1659">
@@ -22203,7 +22203,7 @@
     <row r="1669">
       <c r="B1669" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1669">
@@ -22460,7 +22460,7 @@
     <row r="1688">
       <c r="B1688" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1688">
@@ -22499,7 +22499,7 @@
     <row r="1691">
       <c r="B1691" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1691">
@@ -22629,7 +22629,7 @@
     <row r="1701">
       <c r="B1701" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1701">
@@ -22707,7 +22707,7 @@
     <row r="1707">
       <c r="B1707" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1707">
@@ -22772,7 +22772,7 @@
     <row r="1712">
       <c r="B1712" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1712">
@@ -22785,7 +22785,7 @@
     <row r="1713">
       <c r="B1713" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1713">
@@ -22798,7 +22798,7 @@
     <row r="1714">
       <c r="B1714" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1714">
@@ -22831,7 +22831,7 @@
         <v>59</v>
       </c>
       <c r="D1716">
-        <v>0.0009306580856836393</v>
+        <v>0.0009306580856836392</v>
       </c>
     </row>
     <row r="1717">
@@ -22928,7 +22928,7 @@
     <row r="1724">
       <c r="B1724" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1724">
@@ -22941,7 +22941,7 @@
     <row r="1725">
       <c r="B1725" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1725">
@@ -22967,7 +22967,7 @@
     <row r="1727">
       <c r="B1727" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1727">
@@ -22993,7 +22993,7 @@
     <row r="1729">
       <c r="B1729" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1729">
@@ -23092,41 +23092,6 @@
       </c>
       <c r="D1736">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1738">
-      <c r="A1738" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1739">
-      <c r="A1739" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1740">
-      <c r="A1740" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1741">
-      <c r="A1741" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1742">
-      <c r="A1742" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
